--- a/Labs/Texas/Inference/rmspe_bmprate.xlsx
+++ b/Labs/Texas/Inference/rmspe_bmprate.xlsx
@@ -107,13 +107,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>342.80731201171875</v>
+        <v>298.57199096679688</v>
       </c>
       <c r="C2" s="1">
-        <v>6522.21240234375</v>
+        <v>8985.0966796875</v>
       </c>
       <c r="D2" s="1">
-        <v>19.025884628295898</v>
+        <v>30.093568801879883</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -127,13 +127,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="1">
-        <v>1296.2724609375</v>
+        <v>846.2696533203125</v>
       </c>
       <c r="C3" s="1">
-        <v>23569.021484375</v>
+        <v>24163.169921875</v>
       </c>
       <c r="D3" s="1">
-        <v>18.182151794433594</v>
+        <v>28.552566528320313</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -144,16 +144,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>123.08318328857422</v>
+        <v>82.673263549804688</v>
       </c>
       <c r="C4" s="1">
-        <v>1627.0098876953125</v>
+        <v>2059.4208984375</v>
       </c>
       <c r="D4" s="1">
-        <v>13.218783378601074</v>
+        <v>24.910362243652344</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -164,16 +164,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
-        <v>62.520961761474609</v>
+        <v>60.188556671142578</v>
       </c>
       <c r="C5" s="1">
-        <v>780.58636474609375</v>
+        <v>1427.7275390625</v>
       </c>
       <c r="D5" s="1">
-        <v>12.485194206237793</v>
+        <v>23.720912933349609</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -184,16 +184,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>123.20123291015625</v>
+        <v>16.811555862426758</v>
       </c>
       <c r="C6" s="1">
-        <v>1489.1043701171875</v>
+        <v>391.4412841796875</v>
       </c>
       <c r="D6" s="1">
-        <v>12.086765289306641</v>
+        <v>23.284061431884766</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -204,16 +204,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1">
-        <v>652.964111328125</v>
+        <v>78.172584533691406</v>
       </c>
       <c r="C7" s="1">
-        <v>7387.23583984375</v>
+        <v>1770.857666015625</v>
       </c>
       <c r="D7" s="1">
-        <v>11.313386917114258</v>
+        <v>22.653181076049805</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -224,16 +224,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>232.41883850097656</v>
+        <v>183.46540832519531</v>
       </c>
       <c r="C8" s="1">
-        <v>2596.565185546875</v>
+        <v>4039.30712890625</v>
       </c>
       <c r="D8" s="1">
-        <v>11.17192268371582</v>
+        <v>22.0167236328125</v>
       </c>
       <c r="E8" s="1">
         <v>7</v>
@@ -244,16 +244,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
-        <v>243.57521057128906</v>
+        <v>24.665695190429688</v>
       </c>
       <c r="C9" s="1">
-        <v>2342.065673828125</v>
+        <v>520.3607177734375</v>
       </c>
       <c r="D9" s="1">
-        <v>9.6153697967529297</v>
+        <v>21.096534729003906</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -264,16 +264,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1">
-        <v>241.24986267089844</v>
+        <v>77.178695678710938</v>
       </c>
       <c r="C10" s="1">
-        <v>2185.03271484375</v>
+        <v>1594.2840576171875</v>
       </c>
       <c r="D10" s="1">
-        <v>9.0571355819702148</v>
+        <v>20.657049179077149</v>
       </c>
       <c r="E10" s="1">
         <v>9</v>
@@ -284,16 +284,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1">
-        <v>286.47796630859375</v>
+        <v>121.34007263183594</v>
       </c>
       <c r="C11" s="1">
-        <v>2164.372314453125</v>
+        <v>2374.07666015625</v>
       </c>
       <c r="D11" s="1">
-        <v>7.5551090240478516</v>
+        <v>19.565479278564453</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -304,16 +304,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
-        <v>86.017738342285156</v>
+        <v>157.26751708984375</v>
       </c>
       <c r="C12" s="1">
-        <v>636.271728515625</v>
+        <v>3011.084716796875</v>
       </c>
       <c r="D12" s="1">
-        <v>7.3969826698303223</v>
+        <v>19.146259307861328</v>
       </c>
       <c r="E12" s="1">
         <v>11</v>
@@ -324,16 +324,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1">
-        <v>589.513427734375</v>
+        <v>59.459686279296875</v>
       </c>
       <c r="C13" s="1">
-        <v>4355.91796875</v>
+        <v>1104.1683349609375</v>
       </c>
       <c r="D13" s="1">
-        <v>7.3890056610107422</v>
+        <v>18.570032119750977</v>
       </c>
       <c r="E13" s="1">
         <v>12</v>
@@ -344,16 +344,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1">
-        <v>248.24546813964844</v>
+        <v>2.9603385925292969</v>
       </c>
       <c r="C14" s="1">
-        <v>1766.2392578125</v>
+        <v>51.636020660400391</v>
       </c>
       <c r="D14" s="1">
-        <v>7.1148900985717773</v>
+        <v>17.442605972290039</v>
       </c>
       <c r="E14" s="1">
         <v>13</v>
@@ -364,16 +364,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1">
-        <v>70.514015197753906</v>
+        <v>108.42336273193359</v>
       </c>
       <c r="C15" s="1">
-        <v>409.5384521484375</v>
+        <v>1864.0648193359375</v>
       </c>
       <c r="D15" s="1">
-        <v>5.8079013824462891</v>
+        <v>17.192464828491211</v>
       </c>
       <c r="E15" s="1">
         <v>14</v>
@@ -384,16 +384,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1">
-        <v>31.294174194335938</v>
+        <v>62.218631744384766</v>
       </c>
       <c r="C16" s="1">
-        <v>170.4959716796875</v>
+        <v>1022.6718139648438</v>
       </c>
       <c r="D16" s="1">
-        <v>5.4481697082519531</v>
+        <v>16.436744689941406</v>
       </c>
       <c r="E16" s="1">
         <v>15</v>
@@ -407,13 +407,13 @@
         <v>30</v>
       </c>
       <c r="B17" s="1">
-        <v>4.4646835327148438</v>
+        <v>2.2925004959106445</v>
       </c>
       <c r="C17" s="1">
-        <v>24.098894119262695</v>
+        <v>36.378608703613281</v>
       </c>
       <c r="D17" s="1">
-        <v>5.3976712226867676</v>
+        <v>15.868528366088867</v>
       </c>
       <c r="E17" s="1">
         <v>16</v>
@@ -424,16 +424,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1">
-        <v>309.85800170898438</v>
+        <v>544.27520751953125</v>
       </c>
       <c r="C18" s="1">
-        <v>1593.791015625</v>
+        <v>7999.9111328125</v>
       </c>
       <c r="D18" s="1">
-        <v>5.1436176300048828</v>
+        <v>14.698283195495605</v>
       </c>
       <c r="E18" s="1">
         <v>17</v>
@@ -444,16 +444,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
-        <v>217.59930419921875</v>
+        <v>1022.5202026367188</v>
       </c>
       <c r="C19" s="1">
-        <v>1005.2871704101563</v>
+        <v>13809.392578125</v>
       </c>
       <c r="D19" s="1">
-        <v>4.619901180267334</v>
+        <v>13.505251884460449</v>
       </c>
       <c r="E19" s="1">
         <v>18</v>
@@ -464,16 +464,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
-        <v>617.96612548828125</v>
+        <v>25.598936080932617</v>
       </c>
       <c r="C20" s="1">
-        <v>2657.697021484375</v>
+        <v>341.35061645507813</v>
       </c>
       <c r="D20" s="1">
-        <v>4.3007164001464844</v>
+        <v>13.334562301635742</v>
       </c>
       <c r="E20" s="1">
         <v>19</v>
@@ -484,16 +484,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1">
-        <v>753.33477783203125</v>
+        <v>398.03677368164063</v>
       </c>
       <c r="C21" s="1">
-        <v>3169.098876953125</v>
+        <v>5104.59912109375</v>
       </c>
       <c r="D21" s="1">
-        <v>4.2067604064941406</v>
+        <v>12.824440956115723</v>
       </c>
       <c r="E21" s="1">
         <v>20</v>
@@ -504,16 +504,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
-        <v>145.96931457519531</v>
+        <v>205.87770080566406</v>
       </c>
       <c r="C22" s="1">
-        <v>598.755859375</v>
+        <v>2433.734375</v>
       </c>
       <c r="D22" s="1">
-        <v>4.1019296646118164</v>
+        <v>11.821262359619141</v>
       </c>
       <c r="E22" s="1">
         <v>21</v>
@@ -524,16 +524,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>146.97000122070313</v>
+        <v>201.41119384765625</v>
       </c>
       <c r="C23" s="1">
-        <v>580.58184814453125</v>
+        <v>2169.610107421875</v>
       </c>
       <c r="D23" s="1">
-        <v>3.9503426551818848</v>
+        <v>10.772043228149414</v>
       </c>
       <c r="E23" s="1">
         <v>22</v>
@@ -544,16 +544,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1">
-        <v>7.9508023262023926</v>
+        <v>2.2596268653869629</v>
       </c>
       <c r="C24" s="1">
-        <v>29.232244491577148</v>
+        <v>24.041156768798828</v>
       </c>
       <c r="D24" s="1">
-        <v>3.6766407489776611</v>
+        <v>10.639436721801758</v>
       </c>
       <c r="E24" s="1">
         <v>23</v>
@@ -564,16 +564,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1">
-        <v>223.93159484863281</v>
+        <v>36.442703247070313</v>
       </c>
       <c r="C25" s="1">
-        <v>798.10479736328125</v>
+        <v>380.33938598632813</v>
       </c>
       <c r="D25" s="1">
-        <v>3.5640561580657959</v>
+        <v>10.436640739440918</v>
       </c>
       <c r="E25" s="1">
         <v>24</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1">
-        <v>165.8011474609375</v>
+        <v>6.4299201965332031</v>
       </c>
       <c r="C26" s="1">
-        <v>584.940673828125</v>
+        <v>59.924129486083984</v>
       </c>
       <c r="D26" s="1">
-        <v>3.5279650688171387</v>
+        <v>9.3195762634277344</v>
       </c>
       <c r="E26" s="1">
         <v>25</v>
@@ -604,16 +604,16 @@
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
-        <v>135.58853149414063</v>
+        <v>416.14227294921875</v>
       </c>
       <c r="C27" s="1">
-        <v>424.48495483398438</v>
+        <v>3602.402587890625</v>
       </c>
       <c r="D27" s="1">
-        <v>3.1306848526000977</v>
+        <v>8.6566610336303711</v>
       </c>
       <c r="E27" s="1">
         <v>26</v>
@@ -624,16 +624,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1">
-        <v>353.97918701171875</v>
+        <v>14.667375564575195</v>
       </c>
       <c r="C28" s="1">
-        <v>1062.8662109375</v>
+        <v>118.31487274169922</v>
       </c>
       <c r="D28" s="1">
-        <v>3.0026235580444336</v>
+        <v>8.066533088684082</v>
       </c>
       <c r="E28" s="1">
         <v>27</v>
@@ -644,16 +644,16 @@
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1">
-        <v>1155.5404052734375</v>
+        <v>5.3476166725158692</v>
       </c>
       <c r="C29" s="1">
-        <v>3149.380615234375</v>
+        <v>39.70599365234375</v>
       </c>
       <c r="D29" s="1">
-        <v>2.7254612445831299</v>
+        <v>7.4249887466430664</v>
       </c>
       <c r="E29" s="1">
         <v>28</v>
@@ -664,16 +664,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1">
-        <v>21.589229583740234</v>
+        <v>126.24043273925781</v>
       </c>
       <c r="C30" s="1">
-        <v>54.974006652832031</v>
+        <v>830.20062255859375</v>
       </c>
       <c r="D30" s="1">
-        <v>2.5463626384735107</v>
+        <v>6.5763454437255859</v>
       </c>
       <c r="E30" s="1">
         <v>29</v>
@@ -684,16 +684,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1">
-        <v>816.8443603515625</v>
+        <v>5.7624654769897461</v>
       </c>
       <c r="C31" s="1">
-        <v>1872.9410400390625</v>
+        <v>37.245685577392578</v>
       </c>
       <c r="D31" s="1">
-        <v>2.2928981781005859</v>
+        <v>6.4634981155395508</v>
       </c>
       <c r="E31" s="1">
         <v>30</v>
@@ -704,16 +704,16 @@
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1">
-        <v>226.27127075195313</v>
+        <v>2.3853366374969482</v>
       </c>
       <c r="C32" s="1">
-        <v>509.7987060546875</v>
+        <v>14.793729782104492</v>
       </c>
       <c r="D32" s="1">
-        <v>2.2530422210693359</v>
+        <v>6.2019462585449219</v>
       </c>
       <c r="E32" s="1">
         <v>31</v>
@@ -724,16 +724,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1">
-        <v>326.48263549804688</v>
+        <v>137.40098571777344</v>
       </c>
       <c r="C33" s="1">
-        <v>669.527587890625</v>
+        <v>834.5032958984375</v>
       </c>
       <c r="D33" s="1">
-        <v>2.050729513168335</v>
+        <v>6.0734882354736328</v>
       </c>
       <c r="E33" s="1">
         <v>32</v>
@@ -744,16 +744,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>16.978605270385742</v>
+        <v>42.841575622558594</v>
       </c>
       <c r="C34" s="1">
-        <v>34.370536804199219</v>
+        <v>248.04331970214844</v>
       </c>
       <c r="D34" s="1">
-        <v>2.0243439674377441</v>
+        <v>5.7897806167602539</v>
       </c>
       <c r="E34" s="1">
         <v>33</v>
@@ -764,16 +764,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1">
-        <v>394.27154541015625</v>
+        <v>483.7056884765625</v>
       </c>
       <c r="C35" s="1">
-        <v>782.85601806640625</v>
+        <v>2686.4501953125</v>
       </c>
       <c r="D35" s="1">
-        <v>1.985575795173645</v>
+        <v>5.55389404296875</v>
       </c>
       <c r="E35" s="1">
         <v>34</v>
@@ -784,16 +784,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B36" s="1">
-        <v>35.287525177001953</v>
+        <v>139.82200622558594</v>
       </c>
       <c r="C36" s="1">
-        <v>68.660774230957031</v>
+        <v>726.73052978515625</v>
       </c>
       <c r="D36" s="1">
-        <v>1.9457520246505737</v>
+        <v>5.197540283203125</v>
       </c>
       <c r="E36" s="1">
         <v>35</v>
@@ -804,16 +804,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B37" s="1">
-        <v>29.41691780090332</v>
+        <v>253.11749267578125</v>
       </c>
       <c r="C37" s="1">
-        <v>53.957118988037109</v>
+        <v>1260.9415283203125</v>
       </c>
       <c r="D37" s="1">
-        <v>1.8342206478118896</v>
+        <v>4.9816451072692871</v>
       </c>
       <c r="E37" s="1">
         <v>36</v>
@@ -824,16 +824,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B38" s="1">
-        <v>364.07131958007813</v>
+        <v>103.39201354980469</v>
       </c>
       <c r="C38" s="1">
-        <v>609.43701171875</v>
+        <v>380.799560546875</v>
       </c>
       <c r="D38" s="1">
-        <v>1.6739494800567627</v>
+        <v>3.6830654144287109</v>
       </c>
       <c r="E38" s="1">
         <v>37</v>
@@ -844,16 +844,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1">
-        <v>5415.66064453125</v>
+        <v>285.61666870117188</v>
       </c>
       <c r="C39" s="1">
-        <v>8747.8876953125</v>
+        <v>1037.403564453125</v>
       </c>
       <c r="D39" s="1">
-        <v>1.6152946949005127</v>
+        <v>3.6321535110473633</v>
       </c>
       <c r="E39" s="1">
         <v>38</v>
@@ -864,16 +864,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B40" s="1">
-        <v>26.657207489013672</v>
+        <v>119.98631286621094</v>
       </c>
       <c r="C40" s="1">
-        <v>40.120967864990234</v>
+        <v>410.45095825195313</v>
       </c>
       <c r="D40" s="1">
-        <v>1.5050702095031738</v>
+        <v>3.4208147525787354</v>
       </c>
       <c r="E40" s="1">
         <v>39</v>
@@ -884,16 +884,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1">
-        <v>13.500081062316895</v>
+        <v>581.205810546875</v>
       </c>
       <c r="C41" s="1">
-        <v>19.546703338623047</v>
+        <v>1904.6483154296875</v>
       </c>
       <c r="D41" s="1">
-        <v>1.4478952884674072</v>
+        <v>3.2770633697509766</v>
       </c>
       <c r="E41" s="1">
         <v>40</v>
@@ -904,16 +904,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B42" s="1">
-        <v>1742.41943359375</v>
+        <v>45.502925872802734</v>
       </c>
       <c r="C42" s="1">
-        <v>2397.837646484375</v>
+        <v>139.62672424316406</v>
       </c>
       <c r="D42" s="1">
-        <v>1.3761540651321411</v>
+        <v>3.0685219764709473</v>
       </c>
       <c r="E42" s="1">
         <v>41</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1">
-        <v>58.962501525878906</v>
+        <v>454.71038818359375</v>
       </c>
       <c r="C43" s="1">
-        <v>69.510261535644531</v>
+        <v>1385.8499755859375</v>
       </c>
       <c r="D43" s="1">
-        <v>1.178889274597168</v>
+        <v>3.0477640628814697</v>
       </c>
       <c r="E43" s="1">
         <v>42</v>
@@ -944,16 +944,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B44" s="1">
-        <v>661.5494384765625</v>
+        <v>7.5956144332885742</v>
       </c>
       <c r="C44" s="1">
-        <v>723.5350341796875</v>
+        <v>22.562900543212891</v>
       </c>
       <c r="D44" s="1">
-        <v>1.0936975479125977</v>
+        <v>2.9705169200897217</v>
       </c>
       <c r="E44" s="1">
         <v>43</v>
@@ -964,16 +964,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B45" s="1">
-        <v>1859.755859375</v>
+        <v>9.3264503479003906</v>
       </c>
       <c r="C45" s="1">
-        <v>1745.0340576171875</v>
+        <v>23.691379547119141</v>
       </c>
       <c r="D45" s="1">
-        <v>0.93831354379653931</v>
+        <v>2.5402355194091797</v>
       </c>
       <c r="E45" s="1">
         <v>44</v>
@@ -984,16 +984,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B46" s="1">
-        <v>3174.29736328125</v>
+        <v>4368.1044921875</v>
       </c>
       <c r="C46" s="1">
-        <v>2804.494140625</v>
+        <v>8527.4248046875</v>
       </c>
       <c r="D46" s="1">
-        <v>0.88350075483322144</v>
+        <v>1.9522025585174561</v>
       </c>
       <c r="E46" s="1">
         <v>45</v>
@@ -1004,16 +1004,16 @@
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B47" s="1">
-        <v>936.677978515625</v>
+        <v>46.802352905273438</v>
       </c>
       <c r="C47" s="1">
-        <v>794.8516845703125</v>
+        <v>68.68914794921875</v>
       </c>
       <c r="D47" s="1">
-        <v>0.84858584403991699</v>
+        <v>1.4676430225372314</v>
       </c>
       <c r="E47" s="1">
         <v>46</v>
